--- a/pred_ohlcv/54_21/2019-10-19 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BSV ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-166.20110878</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-209.29780878</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-241.78450878</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-242.09700878</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-158.95413734</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-159.27413734</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-158.9067373399999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-41.57993733999992</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-41.57993733999992</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-110.3808373399999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-109.7608373399999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-137.6053373399999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-140.6053373399999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-111.6915362299999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-111.7015362299999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-111.3790362299999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-108.1720362299999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-120.1839362299999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-132.1237362299999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-135.1495362299999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-114.5406362299999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-122.7910362299999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-227.0564362299999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-236.1455362299999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-235.48553623</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-503.6360493099997</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-503.3160493099998</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-547.6351493099997</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-548.8051493099997</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-548.2251493099997</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-549.0451493099997</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-548.6038493099996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-457.1413576499996</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-536.2598576499996</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-546.6827576499996</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-578.3096576499996</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-527.4441576499996</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-387.5720576499997</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-434.8152576499997</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-514.0756576499997</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>65.2151360700004</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BSV ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-166.20110878</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-209.29780878</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-241.78450878</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-242.09700878</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-158.95413734</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-159.27413734</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-158.9067373399999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-41.57993733999992</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-110.3808373399999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-109.7608373399999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-137.6053373399999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-140.6053373399999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-111.6915362299999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-111.7015362299999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-111.3790362299999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-108.1720362299999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-120.1839362299999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-132.1237362299999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-132.0134362299999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-135.1495362299999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-114.5406362299999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-122.7910362299999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-227.0564362299999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-236.1455362299999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-503.6360493099997</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-503.3160493099998</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-547.6351493099997</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-548.8051493099997</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-548.2251493099997</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-549.0451493099997</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-548.6038493099996</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-457.1413576499996</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-536.2598576499996</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-546.6827576499996</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-578.3096576499996</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-527.4441576499996</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-527.4431576499996</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-317.4371576499997</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-387.5720576499997</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-434.8152576499997</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-514.0756576499997</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>65.2151360700004</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
